--- a/skills/Cleancode course skills.xlsx
+++ b/skills/Cleancode course skills.xlsx
@@ -730,6 +730,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -884,12 +885,12 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="87.3"/>
@@ -901,8 +902,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="29.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="35.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="34.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="34.48"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1049,19 +1050,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="0" t="n">
@@ -1075,19 +1076,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="0" t="n">
@@ -1101,19 +1102,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="0" t="n">
@@ -1127,19 +1128,19 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="0" t="n">
@@ -1153,19 +1154,19 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="0" t="n">

--- a/skills/Cleancode course skills.xlsx
+++ b/skills/Cleancode course skills.xlsx
@@ -725,12 +725,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -747,8 +746,78 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,12 +826,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -770,8 +881,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -795,39 +921,103 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -839,7 +1029,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -855,7 +1045,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -885,12 +1075,12 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="87.3"/>
@@ -903,7 +1093,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="35.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="34.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="34.47"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1180,21 +1370,22 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F11" s="1"/>
       <c r="I11" s="0" t="n">
         <v>0</v>
       </c>
@@ -1206,88 +1397,100 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
@@ -1310,16 +1513,16 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E19" s="0" t="n">
@@ -1336,16 +1539,16 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E20" s="0" t="n">
@@ -1362,16 +1565,16 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E21" s="0" t="n">
@@ -1388,16 +1591,16 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E22" s="0" t="n">
@@ -1414,16 +1617,16 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E23" s="0" t="n">
@@ -1440,19 +1643,19 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="0" t="s">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="0" t="n">
@@ -1466,58 +1669,58 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="0" t="s">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="0" t="s">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="0" t="s">
+      <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="0" t="s">
+      <c r="A28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>96</v>
       </c>
     </row>

--- a/skills/Cleancode course skills.xlsx
+++ b/skills/Cleancode course skills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="233">
   <si>
     <t xml:space="preserve">ID de la compétence parente</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;TDD.1 Ecrire un test en TDD&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercice Jeremie</t>
   </si>
   <si>
     <t xml:space="preserve">M2TESTS.BDD.1</t>
@@ -817,7 +820,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -863,13 +866,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
   </fills>
@@ -970,12 +985,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1020,7 +1043,7 @@
       <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1075,7 +1098,7 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1725,171 +1748,174 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="0" t="s">
+      <c r="A29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="0" t="s">
+      <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="0" t="s">
+      <c r="A31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="0" t="s">
+      <c r="A32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="0" t="s">
+      <c r="A33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="0" t="s">
+      <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="0" t="s">
+      <c r="A35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="0" t="s">
+      <c r="A36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="A37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="A38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="0" t="s">
+      <c r="A39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="0" t="s">
+      <c r="A40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="3" t="s">
         <v>132</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1897,13 +1923,13 @@
         <v>65</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,13 +1937,13 @@
         <v>65</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1925,13 +1951,13 @@
         <v>65</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,13 +1965,13 @@
         <v>65</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,24 +1979,24 @@
         <v>65</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>1</v>
@@ -1987,363 +2013,363 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>1</v>
@@ -2360,13 +2386,13 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>1</v>

--- a/skills/Cleancode course skills.xlsx
+++ b/skills/Cleancode course skills.xlsx
@@ -728,11 +728,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -749,125 +750,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -878,7 +767,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -888,7 +777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -896,23 +785,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -936,111 +810,47 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
@@ -1052,7 +862,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1068,7 +878,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1097,8 +907,8 @@
   </sheetPr>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1919,30 +1729,30 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="0" t="s">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="0" t="s">
+      <c r="A42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1961,16 +1771,16 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="0" t="s">
+      <c r="A44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>145</v>
       </c>
     </row>
